--- a/docs/argo-coverage.xlsx
+++ b/docs/argo-coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="261">
   <si>
     <t>Path</t>
   </si>
@@ -187,7 +187,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>This may be the same as the SubscriberID or the Concatenetation of the SubscriberID + the Subscriber suffix.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatination of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>This may be the same as the SubscriberID or the Concatenetation of the SubscriberID + the Subscriber suffix.</t>
   </si>
   <si>
     <t>This value may uniquely identify the coverage or it may be used in conjunction with the additional identifiers below.</t>
@@ -1268,7 +1265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>50</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>51</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>42</v>
@@ -2236,10 +2233,10 @@
         <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2303,27 +2300,27 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2349,13 +2346,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2381,52 +2378,52 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>42</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2463,17 +2460,17 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>42</v>
@@ -2502,52 +2499,52 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>42</v>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2578,13 +2575,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2635,7 +2632,7 @@
         <v>42</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -2656,21 +2653,21 @@
         <v>42</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2693,13 +2690,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2750,7 +2747,7 @@
         <v>42</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -2771,21 +2768,21 @@
         <v>42</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2808,13 +2805,13 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2865,7 +2862,7 @@
         <v>42</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -2886,21 +2883,21 @@
         <v>42</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2923,13 +2920,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2980,7 +2977,7 @@
         <v>42</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -2995,27 +2992,27 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3038,17 +3035,17 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3077,49 +3074,49 @@
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>42</v>
@@ -3130,7 +3127,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3153,13 +3150,13 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3210,7 +3207,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3225,19 +3222,19 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>42</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3268,17 +3265,17 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3327,7 +3324,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3348,21 +3345,21 @@
         <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3385,13 +3382,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3442,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3454,7 +3451,7 @@
         <v>42</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>42</v>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3500,13 +3497,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3557,25 +3554,25 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3592,7 +3589,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3621,7 +3618,7 @@
         <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>100</v>
@@ -3674,7 +3671,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -3692,7 +3689,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3709,11 +3706,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3738,7 +3735,7 @@
         <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>100</v>
@@ -3791,7 +3788,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3849,13 +3846,13 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3906,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -3930,18 +3927,18 @@
         <v>42</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3964,13 +3961,13 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4021,7 +4018,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4045,18 +4042,18 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4079,13 +4076,13 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4136,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4163,7 +4160,7 @@
         <v>42</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4171,7 +4168,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4194,13 +4191,13 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4251,7 +4248,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4278,7 +4275,7 @@
         <v>42</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4286,7 +4283,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4309,13 +4306,13 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4366,7 +4363,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4390,10 +4387,10 @@
         <v>42</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>42</v>
@@ -4401,7 +4398,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4424,13 +4421,13 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4481,7 +4478,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4505,10 +4502,10 @@
         <v>42</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>42</v>
@@ -4516,7 +4513,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4539,13 +4536,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4596,7 +4593,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4623,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>42</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4654,13 +4651,13 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4711,7 +4708,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -4738,7 +4735,7 @@
         <v>42</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>42</v>
@@ -4746,7 +4743,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4769,13 +4766,13 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4826,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -4850,10 +4847,10 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>42</v>
@@ -4861,7 +4858,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4884,13 +4881,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4941,7 +4938,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -4965,10 +4962,10 @@
         <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>42</v>
@@ -4976,7 +4973,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4999,13 +4996,13 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5056,7 +5053,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5080,10 +5077,10 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>42</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5114,13 +5111,13 @@
         <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5171,7 +5168,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5195,10 +5192,10 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>42</v>
@@ -5206,7 +5203,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5229,17 +5226,17 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5288,7 +5285,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5312,10 +5309,10 @@
         <v>42</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>42</v>
@@ -5323,7 +5320,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5346,17 +5343,17 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5405,7 +5402,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5429,10 +5426,10 @@
         <v>42</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>42</v>
@@ -5440,7 +5437,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5463,13 +5460,13 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5520,7 +5517,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5547,7 +5544,7 @@
         <v>42</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>42</v>
@@ -5555,7 +5552,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5578,13 +5575,13 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5635,7 +5632,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -5659,7 +5656,7 @@
         <v>42</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>42</v>
@@ -5670,7 +5667,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5693,13 +5690,13 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5750,7 +5747,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -5774,13 +5771,13 @@
         <v>42</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/docs/argo-coverage.xlsx
+++ b/docs/argo-coverage.xlsx
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -196,7 +196,7 @@
     <t>Coverage.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>Coverage.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>Coverage.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -294,7 +294,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -355,7 +355,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -413,7 +413,7 @@
     <t>Coverage.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -438,8 +438,8 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/StructureDefinition/Patient}
-Reference {http://hl7.org/fhir/StructureDefinition/RelatedPerson}Reference {http://hl7.org/fhir/StructureDefinition/Organization}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+</t>
   </si>
   <si>
     <t>Owner of the policy</t>
@@ -463,8 +463,8 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}
-Reference {http://hl7.org/fhir/StructureDefinition/RelatedPerson}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+</t>
   </si>
   <si>
     <t>Suscriber (in case dependent is patient)</t>
@@ -476,7 +476,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Patient}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
 </t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>Coverage.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -545,8 +545,8 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t>Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}
-Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}Reference {http://hl7.org/fhir/StructureDefinition/RelatedPerson}</t>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+</t>
   </si>
   <si>
     <t>Payer</t>
@@ -573,7 +573,7 @@
     <t>Coverage.grouping</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -789,7 +789,7 @@
     <t>Coverage.order</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
@@ -814,7 +814,7 @@
     <t>Coverage.contract</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Contract}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Contract]]}
 </t>
   </si>
   <si>
